--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_PRI_ListView_D2.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_PRI_ListView_D2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC229E5-A215-4E62-B779-8ADBCE7BD72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B587F233-69E2-42C8-8E19-217A0AA10AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{79B22D0D-2409-4EC2-B3CC-F342799DAB2D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{79B22D0D-2409-4EC2-B3CC-F342799DAB2D}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>n\a</t>
   </si>
   <si>
-    <t>J02 - J02</t>
-  </si>
-  <si>
     <t>checkAccessibility</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>link_chartOfAccountPrimary_wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J02 - STATE HIGHWAY ADMINISTRATION </t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6FE793-7437-4DAF-98C3-A71A3C2B5448}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -569,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -580,10 +580,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -666,17 +666,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C554DB-36E9-4880-AFC7-0740396E5474}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -705,13 +705,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
